--- a/results/FrequencyTables/26607397_LTR-4.xlsx
+++ b/results/FrequencyTables/26607397_LTR-4.xlsx
@@ -465,37 +465,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0045489006823351</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00985595147839272</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0128885519332828</v>
       </c>
       <c r="E2">
-        <v>0.979591836734694</v>
+        <v>0.943896891584534</v>
       </c>
       <c r="F2">
-        <v>0.0204081632653061</v>
+        <v>0.0151630022744503</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.980288097043215</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.967399545109932</v>
       </c>
       <c r="I2">
-        <v>0.0204081632653061</v>
+        <v>0.0106141015921152</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00606520090978014</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00151630022744503</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.99090219863533</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="S2">
-        <v>0.0612244897959184</v>
+        <v>0.0363912054586808</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0295678544351782</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00227445034116755</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0151630022744503</v>
       </c>
       <c r="W2">
-        <v>0.0102040816326531</v>
+        <v>0.0166793025018954</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0045489006823351</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,31 +539,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0181956027293404</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.962850644427597</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00682335102350265</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00682335102350265</v>
       </c>
       <c r="F3">
-        <v>0.979591836734694</v>
+        <v>0.970432145564822</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0174374526156179</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00227445034116755</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00227445034116755</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -572,34 +572,34 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.998483699772555</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00379075056861259</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0045489006823351</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00227445034116755</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.99696739954511</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.989385898407885</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.989795918367347</v>
+        <v>0.954510993176649</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.020470053070508</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00151630022744503</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.316326530612245</v>
+        <v>0.187263078089462</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00303260045489007</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0128885519332828</v>
       </c>
       <c r="E4">
-        <v>0.0204081632653061</v>
+        <v>0.043972706595906</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00379075056861259</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00151630022744503</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0250189537528431</v>
       </c>
       <c r="I4">
-        <v>0.979591836734694</v>
+        <v>0.988627748294162</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.991660348749052</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.995451099317665</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00530705079605762</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0102040816326531</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="S4">
-        <v>0.938775510204082</v>
+        <v>0.963608794541319</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00379075056861259</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.974981046247157</v>
       </c>
       <c r="W4">
-        <v>0.989795918367347</v>
+        <v>0.982562547384382</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.991660348749052</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,25 +687,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.683673469387755</v>
+        <v>0.789992418498863</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0242608036391205</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.967399545109932</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00530705079605762</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0106141015921152</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00530705079605762</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -714,46 +714,46 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00303260045489007</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00379075056861259</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000758150113722517</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.995451099317665</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.995451099317665</v>
       </c>
       <c r="P5">
-        <v>0.989795918367347</v>
+        <v>0.99696739954511</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00227445034116755</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0090978013646702</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0102040816326531</v>
+        <v>0.0121304018195603</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.976497346474602</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00758150113722517</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00303260045489007</v>
       </c>
     </row>
   </sheetData>
